--- a/medicine/Pharmacie/Acide_chénodésoxycholique/Acide_chénodésoxycholique.xlsx
+++ b/medicine/Pharmacie/Acide_chénodésoxycholique/Acide_chénodésoxycholique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_ch%C3%A9nod%C3%A9soxycholique</t>
+          <t>Acide_chénodésoxycholique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide chénodésoxycholique est un acide biliaire primaire. Son précurseur est le cholestérol, comme tous les acides biliaires.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_ch%C3%A9nod%C3%A9soxycholique</t>
+          <t>Acide_chénodésoxycholique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Aspects économiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">le coût annuel du traitement de la xanthomatose cérébrotendineuse par l'acide chénodésoxycholique est passé de 30 000 euros à plus de 170 000 euros, de par le monopole du laboratoire. Ce coût a été contré par les hôpitaux hollandais fabriquant la même molécule pour un coût annuel de 20 000 euros[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le coût annuel du traitement de la xanthomatose cérébrotendineuse par l'acide chénodésoxycholique est passé de 30 000 euros à plus de 170 000 euros, de par le monopole du laboratoire. Ce coût a été contré par les hôpitaux hollandais fabriquant la même molécule pour un coût annuel de 20 000 euros.
 </t>
         </is>
       </c>
